--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,340 +43,361 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointing</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>however</t>
+    <t>tried</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>work</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>air</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>reviews</t>
+    <t>within</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>balls</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>interest</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>part</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>received</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>never</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ordered</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>think</t>
   </si>
   <si>
-    <t>box</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>put</t>
+    <t>3</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>together</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>highly</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>blast</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>challenge</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>strategy</t>
   </si>
   <si>
     <t>helicopter</t>
@@ -388,82 +409,103 @@
     <t>wait</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>story</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>ages</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>educational</t>
   </si>
   <si>
     <t>everyone</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>game</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>lots</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>educational</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>play</t>
   </si>
   <si>
     <t>christmas</t>
@@ -472,19 +514,16 @@
     <t>games</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>children</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>nice</t>
   </si>
   <si>
     <t>kids</t>
@@ -851,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,10 +898,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -941,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K3">
-        <v>0.8936170212765957</v>
+        <v>0.890625</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -962,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -970,13 +1009,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9565217391304348</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -988,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K4">
-        <v>0.8817204301075269</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1012,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1020,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9516129032258065</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1038,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K5">
         <v>0.875</v>
@@ -1070,13 +1109,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9466019417475728</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="C6">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1088,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K6">
-        <v>0.8615384615384616</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1112,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1120,13 +1159,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9408602150537635</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="C7">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1138,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K7">
-        <v>0.8441558441558441</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1162,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1170,13 +1209,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9368421052631579</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1188,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1212,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1220,13 +1259,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9295774647887324</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1241,16 +1280,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1270,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.890625</v>
+        <v>0.90625</v>
       </c>
       <c r="C10">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1288,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8195020746887967</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1312,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1320,13 +1359,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.873015873015873</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1338,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K11">
-        <v>0.7883817427385892</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1362,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1370,13 +1409,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.859375</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1388,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K12">
-        <v>0.7857142857142857</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1412,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1420,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7962962962962963</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1438,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K13">
-        <v>0.7733142037302726</v>
+        <v>0.7747489239598279</v>
       </c>
       <c r="L13">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M13">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1462,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1470,13 +1509,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7951807228915663</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1488,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K14">
-        <v>0.7321428571428571</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1512,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1520,13 +1559,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1538,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K15">
-        <v>0.7289156626506024</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1562,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1570,13 +1609,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7837837837837838</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1588,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K16">
-        <v>0.7272727272727273</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1612,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1620,13 +1659,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7677725118483413</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C17">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1638,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K17">
-        <v>0.6909090909090909</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1662,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1670,13 +1709,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1688,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1712,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1720,13 +1759,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7454545454545455</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1738,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K19">
-        <v>0.6636085626911316</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L19">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1762,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1770,13 +1809,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7422680412371134</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1788,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.6941896024464832</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1812,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1820,13 +1859,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1838,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K21">
-        <v>0.6360655737704918</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="L21">
-        <v>776</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>776</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1862,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>444</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1870,13 +1909,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7301587301587301</v>
+        <v>0.7725118483412322</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1888,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K22">
-        <v>0.6285714285714286</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1912,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1920,13 +1959,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7272727272727273</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1938,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K23">
-        <v>0.5925925925925926</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1962,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1970,13 +2009,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6829268292682927</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1988,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K24">
-        <v>0.5652173913043478</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2012,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2020,13 +2059,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6638655462184874</v>
+        <v>0.765625</v>
       </c>
       <c r="C25">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2038,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K25">
-        <v>0.5459610027855153</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L25">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2062,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2070,13 +2109,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6607142857142857</v>
+        <v>0.7525773195876289</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2088,31 +2127,31 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26">
+        <v>0.62</v>
+      </c>
+      <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>19</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="L26">
-        <v>16</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2120,13 +2159,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6579710144927536</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C27">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2138,31 +2177,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K27">
-        <v>0.5147058823529411</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2170,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6551724137931034</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C28">
         <v>38</v>
@@ -2188,19 +2227,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K28">
-        <v>0.5042735042735043</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2212,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2220,13 +2259,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6481481481481481</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2238,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K29">
-        <v>0.5026455026455027</v>
+        <v>0.5738916256157636</v>
       </c>
       <c r="L29">
-        <v>95</v>
+        <v>699</v>
       </c>
       <c r="M29">
-        <v>95</v>
+        <v>701</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2259,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>94</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2270,13 +2309,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6435643564356436</v>
+        <v>0.6506024096385542</v>
       </c>
       <c r="C30">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2288,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K30">
-        <v>0.4878048780487805</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2312,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2320,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.639344262295082</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2338,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K31">
-        <v>0.4166666666666667</v>
+        <v>0.5376044568245125</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2362,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2370,13 +2409,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6285714285714286</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2388,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K32">
-        <v>0.4140168721609345</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L32">
-        <v>638</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>638</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2412,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>903</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2420,13 +2459,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6043956043956044</v>
+        <v>0.6202898550724638</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2438,31 +2477,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K33">
-        <v>0.3532513181019332</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L33">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>736</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2470,13 +2509,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6</v>
+        <v>0.6138613861386139</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2488,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K34">
-        <v>0.3360655737704918</v>
+        <v>0.425</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2512,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2520,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5942028985507246</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2538,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K35">
-        <v>0.3207547169811321</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2562,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2570,13 +2609,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5925925925925926</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C36">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2588,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K36">
-        <v>0.2597402597402597</v>
+        <v>0.4204028589993502</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>647</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>649</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2609,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>114</v>
+        <v>892</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2620,13 +2659,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2638,31 +2677,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K37">
-        <v>0.2473867595818815</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L37">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>216</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2670,13 +2709,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5555555555555556</v>
+        <v>0.59375</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2688,19 +2727,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K38">
-        <v>0.224</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2712,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2720,13 +2759,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2738,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K39">
-        <v>0.2063492063492063</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2762,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2770,37 +2809,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C40">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K40">
-        <v>0.1678321678321678</v>
+        <v>0.32</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2812,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2820,13 +2859,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5333333333333333</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2838,31 +2877,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K41">
-        <v>0.1635388739946381</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>312</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2870,13 +2909,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5238095238095238</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2888,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K42">
-        <v>0.15625</v>
+        <v>0.3146362839614373</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2912,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>108</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2920,13 +2959,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5178571428571429</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2938,31 +2977,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K43">
-        <v>0.1336032388663968</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>214</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2970,13 +3009,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5172413793103449</v>
+        <v>0.5348101265822784</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2988,31 +3027,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K44">
-        <v>0.1</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M44">
         <v>17</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3020,13 +3059,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="C45">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3038,31 +3077,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K45">
-        <v>0.09803921568627451</v>
+        <v>0.264</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>184</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3070,13 +3109,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4791666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3088,31 +3127,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K46">
-        <v>0.07610146862483311</v>
+        <v>0.2569444444444444</v>
       </c>
       <c r="L46">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>692</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3120,49 +3159,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4736842105263158</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K47">
-        <v>0.06361323155216285</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3170,13 +3209,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.46875</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3191,28 +3230,28 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K48">
-        <v>0.05900621118012422</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>303</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3220,13 +3259,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4285714285714285</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3238,31 +3277,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K49">
-        <v>0.03401360544217687</v>
+        <v>0.2265625</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N49">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>426</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3270,13 +3309,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.427536231884058</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C50">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3288,31 +3327,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K50">
-        <v>0.02669039145907473</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N50">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>547</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3320,13 +3359,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4269662921348314</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3338,31 +3377,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K51">
-        <v>0.02593659942363112</v>
+        <v>0.1524064171122995</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N51">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>676</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3370,13 +3409,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3388,7 +3427,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52">
+        <v>0.1311914323962517</v>
+      </c>
+      <c r="L52">
+        <v>98</v>
+      </c>
+      <c r="M52">
+        <v>103</v>
+      </c>
+      <c r="N52">
+        <v>0.95</v>
+      </c>
+      <c r="O52">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3396,13 +3459,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.392156862745098</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3414,7 +3477,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K53">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="L53">
+        <v>32</v>
+      </c>
+      <c r="M53">
+        <v>33</v>
+      </c>
+      <c r="N53">
+        <v>0.97</v>
+      </c>
+      <c r="O53">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3422,13 +3509,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.37</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3440,7 +3527,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K54">
+        <v>0.125</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>21</v>
+      </c>
+      <c r="N54">
+        <v>0.95</v>
+      </c>
+      <c r="O54">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3448,13 +3559,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3673469387755102</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3466,7 +3577,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55">
+        <v>0.1203703703703704</v>
+      </c>
+      <c r="L55">
+        <v>39</v>
+      </c>
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3474,13 +3609,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3604651162790697</v>
+        <v>0.4272151898734177</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3492,7 +3627,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>55</v>
+        <v>181</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K56">
+        <v>0.0916030534351145</v>
+      </c>
+      <c r="L56">
+        <v>36</v>
+      </c>
+      <c r="M56">
+        <v>39</v>
+      </c>
+      <c r="N56">
+        <v>0.92</v>
+      </c>
+      <c r="O56">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3500,13 +3659,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.358974358974359</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="C57">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3518,7 +3677,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>50</v>
+        <v>165</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57">
+        <v>0.0845771144278607</v>
+      </c>
+      <c r="L57">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="N57">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O57">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3526,25 +3709,49 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3392857142857143</v>
+        <v>0.3727810650887574</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>37</v>
+        <v>106</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K58">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>22</v>
+      </c>
+      <c r="N58">
+        <v>0.91</v>
+      </c>
+      <c r="O58">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3552,13 +3759,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3162393162393162</v>
+        <v>0.3715846994535519</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D59">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3570,7 +3777,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K59">
+        <v>0.0481283422459893</v>
+      </c>
+      <c r="L59">
+        <v>27</v>
+      </c>
+      <c r="M59">
+        <v>31</v>
+      </c>
+      <c r="N59">
+        <v>0.87</v>
+      </c>
+      <c r="O59">
+        <v>0.13</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3578,13 +3809,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3108108108108108</v>
+        <v>0.365</v>
       </c>
       <c r="C60">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D60">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3596,7 +3827,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>102</v>
+        <v>127</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60">
+        <v>0.02586206896551724</v>
+      </c>
+      <c r="L60">
+        <v>18</v>
+      </c>
+      <c r="M60">
+        <v>27</v>
+      </c>
+      <c r="N60">
+        <v>0.67</v>
+      </c>
+      <c r="O60">
+        <v>0.33</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3604,25 +3859,49 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2938144329896907</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C61">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>137</v>
+        <v>39</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K61">
+        <v>0.01950585175552666</v>
+      </c>
+      <c r="L61">
+        <v>15</v>
+      </c>
+      <c r="M61">
+        <v>40</v>
+      </c>
+      <c r="N61">
+        <v>0.38</v>
+      </c>
+      <c r="O61">
+        <v>0.62</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3630,25 +3909,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2916666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C62">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>476</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3656,13 +3935,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2905982905982906</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3674,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3682,25 +3961,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2857142857142857</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3708,13 +3987,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2837837837837838</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3726,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3734,25 +4013,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2711864406779661</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3760,13 +4039,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2698412698412698</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3778,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3786,13 +4065,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2677595628415301</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="C68">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D68">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3804,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3812,13 +4091,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.267515923566879</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3830,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3838,25 +4117,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2658227848101266</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="C70">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D70">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E70">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>232</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3864,25 +4143,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2440944881889764</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3890,25 +4169,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2421875</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3916,13 +4195,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.24</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C73">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3934,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3942,25 +4221,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2380952380952381</v>
+        <v>0.2199108469539376</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>48</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3968,25 +4247,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2298850574712644</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="C75">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D75">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>268</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3994,13 +4273,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2280701754385965</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D76">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4012,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4020,25 +4299,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2142857142857143</v>
+        <v>0.2138728323699422</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>110</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4046,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2092511013215859</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="C78">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>359</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4072,25 +4351,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1666666666666667</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C79">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="D79">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F79">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>545</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4098,13 +4377,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1635514018691589</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4116,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>179</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4124,25 +4403,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1467889908256881</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>93</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4150,13 +4429,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1354166666666667</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4168,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4176,25 +4455,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1189189189189189</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4202,25 +4481,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1176470588235294</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="C84">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E84">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F84">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4228,25 +4507,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1098901098901099</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C85">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D85">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>324</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4254,13 +4533,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1055900621118012</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4272,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4280,25 +4559,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1005291005291005</v>
+        <v>0.126463700234192</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F87">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>170</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4306,13 +4585,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09930715935334873</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="C88">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4324,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>390</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4332,13 +4611,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09740259740259741</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4350,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4358,25 +4637,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09712230215827339</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="C90">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D90">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E90">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F90">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4384,25 +4663,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09686609686609686</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="C91">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D91">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E91">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F91">
-        <v>0.89</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4410,25 +4689,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09345794392523364</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="C92">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E92">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F92">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>388</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4436,13 +4715,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09142857142857143</v>
+        <v>0.09375</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4454,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4462,13 +4741,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08994708994708994</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4480,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4488,25 +4767,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08994708994708994</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4514,25 +4793,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.08333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C96">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E96">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F96">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4566,25 +4845,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.07000000000000001</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F98">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>279</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4592,25 +4871,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.06882591093117409</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="C99">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E99">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F99">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4618,25 +4897,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.064</v>
+        <v>0.07971014492753623</v>
       </c>
       <c r="C100">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D100">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="F100">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>468</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4644,25 +4923,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.05843071786310518</v>
+        <v>0.0664451827242525</v>
       </c>
       <c r="C101">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D101">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E101">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>564</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4670,25 +4949,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04430379746835443</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>755</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4696,25 +4975,129 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0352112676056338</v>
+        <v>0.05639097744360902</v>
       </c>
       <c r="C103">
         <v>15</v>
       </c>
       <c r="D103">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>0.06</v>
+      </c>
+      <c r="F103">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.0499001996007984</v>
+      </c>
+      <c r="C104">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>28</v>
+      </c>
+      <c r="E104">
+        <v>0.11</v>
+      </c>
+      <c r="F104">
+        <v>0.89</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.04215456674473068</v>
+      </c>
+      <c r="C105">
         <v>18</v>
       </c>
-      <c r="E103">
-        <v>0.17</v>
-      </c>
-      <c r="F103">
-        <v>0.83</v>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>411</v>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>0.1</v>
+      </c>
+      <c r="F105">
+        <v>0.9</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.03826955074875208</v>
+      </c>
+      <c r="C106">
+        <v>23</v>
+      </c>
+      <c r="D106">
+        <v>30</v>
+      </c>
+      <c r="E106">
+        <v>0.23</v>
+      </c>
+      <c r="F106">
+        <v>0.77</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.03209242618741977</v>
+      </c>
+      <c r="C107">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107">
+        <v>0.38</v>
+      </c>
+      <c r="F107">
+        <v>0.62</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
